--- a/biology/Botanique/Nepenthes_truncata/Nepenthes_truncata.xlsx
+++ b/biology/Botanique/Nepenthes_truncata/Nepenthes_truncata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes truncata (le terme latin truncata signifie tronqué) est une espèce de plantes à fleurs de la famille des Nepenthaceae. C'est une plante carnivore endémique de l'île des Philippines  Mindanao.
 </t>
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce vit sous les climats tropicaux, sur les pentes exposées des montagnes entre 230 à 600 m d'altitude.
-Son urne, qui est une feuille modifiée, peut atteindre 50 cm de longueur[1].
+Son urne, qui est une feuille modifiée, peut atteindre 50 cm de longueur.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fonction carnivore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est composée d'une urne et d'un petit clapet. Quand un insecte tombe dans l'urne, la plante digère l'insecte par des enzymes digestives contenues dans l'urne.
 </t>
@@ -574,9 +590,11 @@
           <t>Anecdote</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 29 septembre 2006, une Nepenthes truncata du jardin botanique de Lyon fut observée avec une souris en décomposition dans une de ses urnes[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 29 septembre 2006, une Nepenthes truncata du jardin botanique de Lyon fut observée avec une souris en décomposition dans une de ses urnes.
 </t>
         </is>
       </c>
